--- a/Final-s/1-layer-01/test-ph-00/better_results.xlsx
+++ b/Final-s/1-layer-01/test-ph-00/better_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1189,153 +1189,153 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>model_13_8_5</t>
+          <t>model_15_9_21</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9924312436297082</v>
+        <v>0.9923614965249237</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9890868911894258</v>
+        <v>0.9693314803620869</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9669138183909336</v>
+        <v>0.9594481707951306</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9780557518882447</v>
+        <v>0.9694214424769823</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001415944406024296</v>
+        <v>0.001428992523578159</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001514523935326256</v>
+        <v>0.004751197352201438</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006223459063506635</v>
+        <v>0.004553907057473697</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003730491806336667</v>
+        <v>0.004658352266198583</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>model_13_8_4</t>
+          <t>model_15_9_22</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9924107229026302</v>
+        <v>0.9922617368225538</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9905875982144333</v>
+        <v>0.9689070542599502</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9680017879343955</v>
+        <v>0.95876770861369</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9792708679640036</v>
+        <v>0.9689568734422547</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001419783373391207</v>
+        <v>0.001447655324388031</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001306255443850766</v>
+        <v>0.004816949863130728</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00601881369233386</v>
+        <v>0.004630321897227322</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003523923755279204</v>
+        <v>0.004729124937999714</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>model_13_8_6</t>
+          <t>model_15_9_2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9923925799738758</v>
+        <v>0.9922539521808154</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9876177138522106</v>
+        <v>0.9877451176467239</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9658585995271325</v>
+        <v>0.9793684785278836</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9768713472737462</v>
+        <v>0.9862452453959257</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001423177508070943</v>
+        <v>0.001449111656100039</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001718416728944812</v>
+        <v>0.001898538477757045</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00642194408300814</v>
+        <v>0.002316887624566378</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003931838951487056</v>
+        <v>0.00209540597958759</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>model_15_9_21</t>
+          <t>model_15_9_23</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9923614965249237</v>
+        <v>0.9921692373401154</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9693314803620869</v>
+        <v>0.9685214811996583</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9594481707951306</v>
+        <v>0.9581450004650607</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9694214424769823</v>
+        <v>0.9685332761153723</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001428992523578159</v>
+        <v>0.001464959901033268</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004751197352201438</v>
+        <v>0.004876683222444043</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004553907057473697</v>
+        <v>0.004700251049336902</v>
       </c>
       <c r="J23" t="n">
-        <v>0.004658352266198583</v>
+        <v>0.004793655959979833</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1345,75 +1345,75 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>model_13_8_7</t>
+          <t>model_15_9_24</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9923115451042971</v>
+        <v>0.9920838149514869</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9861998204630142</v>
+        <v>0.9681717196910131</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9648470969401934</v>
+        <v>0.9575762290603418</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9757319145549423</v>
+        <v>0.9681476976214684</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001438337313018976</v>
+        <v>0.001480940512300204</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001915192323594619</v>
+        <v>0.004930868620806827</v>
       </c>
       <c r="I24" t="n">
-        <v>0.006612206139138593</v>
+        <v>0.004764123189381525</v>
       </c>
       <c r="J24" t="n">
-        <v>0.004125540936614201</v>
+        <v>0.004852395174526591</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>model_13_8_3</t>
+          <t>model_13_8_10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9923097298177366</v>
+        <v>0.9919300618620255</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9920921477779172</v>
+        <v>0.9823634422916</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9691081995030774</v>
+        <v>0.9621322687911434</v>
       </c>
       <c r="F25" t="n">
-        <v>0.980497121392139</v>
+        <v>0.9726602020596919</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001438676912383103</v>
+        <v>0.00150970426373847</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001097453683936747</v>
+        <v>0.002447605833477367</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00581069940503287</v>
+        <v>0.007122861072055901</v>
       </c>
       <c r="J25" t="n">
-        <v>0.003315462369732779</v>
+        <v>0.004647727809301587</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1423,114 +1423,114 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>model_15_9_22</t>
+          <t>model_13_8_11</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9922617368225538</v>
+        <v>0.9917828816342188</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9689070542599502</v>
+        <v>0.981240044294782</v>
       </c>
       <c r="E26" t="n">
-        <v>0.95876770861369</v>
+        <v>0.9613413531840581</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9689568734422547</v>
+        <v>0.971762866968029</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001447655324388031</v>
+        <v>0.001537238380315157</v>
       </c>
       <c r="H26" t="n">
-        <v>0.004816949863130728</v>
+        <v>0.002603511284857995</v>
       </c>
       <c r="I26" t="n">
-        <v>0.004630321897227322</v>
+        <v>0.007271631061943017</v>
       </c>
       <c r="J26" t="n">
-        <v>0.004729124937999714</v>
+        <v>0.004800273532898005</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>model_15_9_2</t>
+          <t>model_13_8_12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9922539521808154</v>
+        <v>0.9916343182969717</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9877451176467239</v>
+        <v>0.9801961965849199</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9793684785278836</v>
+        <v>0.9606076600675983</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9862452453959257</v>
+        <v>0.9709296327680584</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001449111656100039</v>
+        <v>0.001565031245618772</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001898538477757045</v>
+        <v>0.002748376727772828</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002316887624566378</v>
+        <v>0.00740963759075361</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00209540597958759</v>
+        <v>0.004941922193627682</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>model_13_8_8</t>
+          <t>model_13_8_13</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9922011390173353</v>
+        <v>0.9914875290138689</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9848465666042823</v>
+        <v>0.9792299463638714</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9638864388979453</v>
+        <v>0.9599292323939191</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9746467895169895</v>
+        <v>0.9701588405182573</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001458991813385529</v>
+        <v>0.001592492225217669</v>
       </c>
       <c r="H28" t="n">
-        <v>0.002102997228246202</v>
+        <v>0.002882473172030243</v>
       </c>
       <c r="I28" t="n">
-        <v>0.006792904415857253</v>
+        <v>0.007537248776129437</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00431001069116302</v>
+        <v>0.005072955809253393</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1540,153 +1540,153 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>model_15_9_23</t>
+          <t>model_13_8_14</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9921692373401154</v>
+        <v>0.991344814166246</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9685214811996583</v>
+        <v>0.9783387352881099</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9581450004650607</v>
+        <v>0.9593042661590687</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9685332761153723</v>
+        <v>0.9694482094228308</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001464959901033268</v>
+        <v>0.001619190969405239</v>
       </c>
       <c r="H29" t="n">
-        <v>0.004876683222444043</v>
+        <v>0.00300615566517653</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004700251049336902</v>
+        <v>0.00765480394839505</v>
       </c>
       <c r="J29" t="n">
-        <v>0.004793655959979833</v>
+        <v>0.005193762111903441</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>model_13_8_2</t>
+          <t>model_15_9_1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9921010770232334</v>
+        <v>0.9913323392980706</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9935624503220961</v>
+        <v>0.9888778938149249</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9702115265056863</v>
+        <v>0.9787462001077221</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9817071576309114</v>
+        <v>0.9866392070722991</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001477711166192345</v>
+        <v>0.001621524737192769</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0008934047338179413</v>
+        <v>0.001723047674988079</v>
       </c>
       <c r="I30" t="n">
-        <v>0.005603165319790582</v>
+        <v>0.002386768518840473</v>
       </c>
       <c r="J30" t="n">
-        <v>0.003109757883932099</v>
+        <v>0.00203538966696239</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>model_15_9_24</t>
+          <t>model_13_8_15</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9920838149514869</v>
+        <v>0.9912078508690331</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9681717196910131</v>
+        <v>0.9775196113082195</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9575762290603418</v>
+        <v>0.9587298110440041</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9681476976214684</v>
+        <v>0.9687951422829533</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001480940512300204</v>
+        <v>0.001644813727627502</v>
       </c>
       <c r="H31" t="n">
-        <v>0.004930868620806827</v>
+        <v>0.003119833893358556</v>
       </c>
       <c r="I31" t="n">
-        <v>0.004764123189381525</v>
+        <v>0.007762858057952593</v>
       </c>
       <c r="J31" t="n">
-        <v>0.004852395174526591</v>
+        <v>0.005304782621783464</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>model_13_8_9</t>
+          <t>model_13_8_16</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9920713884113554</v>
+        <v>0.991077590901396</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9835661546461384</v>
+        <v>0.9767679600602217</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9629806450222745</v>
+        <v>0.9582032887432668</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9736217573229708</v>
+        <v>0.9681961328255013</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001483265238995652</v>
+        <v>0.001669182443369037</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002280693115948512</v>
+        <v>0.0032241482391486</v>
       </c>
       <c r="I32" t="n">
-        <v>0.006963282828568015</v>
+        <v>0.007861896080030188</v>
       </c>
       <c r="J32" t="n">
-        <v>0.004484264745416514</v>
+        <v>0.005406613400471465</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1696,36 +1696,36 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>model_13_8_10</t>
+          <t>model_13_8_17</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9919300618620255</v>
+        <v>0.9909547405080269</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9823634422916</v>
+        <v>0.9760800958507813</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9621322687911434</v>
+        <v>0.9577219176745676</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9726602020596919</v>
+        <v>0.9676480938914278</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00150970426373847</v>
+        <v>0.001692164994102434</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002447605833477367</v>
+        <v>0.003319610203977756</v>
       </c>
       <c r="I33" t="n">
-        <v>0.007122861072055901</v>
+        <v>0.007952441225910201</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004647727809301587</v>
+        <v>0.005499779260732557</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1735,36 +1735,36 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>model_13_8_11</t>
+          <t>model_13_8_18</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9917828816342188</v>
+        <v>0.9908395894535709</v>
       </c>
       <c r="D34" t="n">
-        <v>0.981240044294782</v>
+        <v>0.9754517455623093</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9613413531840581</v>
+        <v>0.9572819850734693</v>
       </c>
       <c r="F34" t="n">
-        <v>0.971762866968029</v>
+        <v>0.9671474911118747</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001537238380315157</v>
+        <v>0.001713707171367485</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002603511284857995</v>
+        <v>0.003406812812160107</v>
       </c>
       <c r="I34" t="n">
-        <v>0.007271631061943017</v>
+        <v>0.008035191860782102</v>
       </c>
       <c r="J34" t="n">
-        <v>0.004800273532898005</v>
+        <v>0.005584881040380776</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1774,36 +1774,36 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>model_13_8_1</t>
+          <t>model_13_8_19</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9917503608136599</v>
+        <v>0.990732322524996</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9949465439390159</v>
+        <v>0.9748789481361835</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9712847132379026</v>
+        <v>0.9568811834779817</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9828641847229882</v>
+        <v>0.9666912695232441</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001543322295782499</v>
+        <v>0.001733774405670754</v>
       </c>
       <c r="H35" t="n">
-        <v>0.000701319879910294</v>
+        <v>0.003486305780389317</v>
       </c>
       <c r="I35" t="n">
-        <v>0.005401300572314968</v>
+        <v>0.008110582014640835</v>
       </c>
       <c r="J35" t="n">
-        <v>0.002913064879700617</v>
+        <v>0.005662438078999408</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1813,36 +1813,36 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>model_13_8_12</t>
+          <t>model_13_7_11</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9916343182969717</v>
+        <v>0.9907003566939753</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9801961965849199</v>
+        <v>0.9641100599771162</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9606076600675983</v>
+        <v>0.9682052095054332</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9709296327680584</v>
+        <v>0.9711391628319697</v>
       </c>
       <c r="G36" t="n">
-        <v>0.001565031245618772</v>
+        <v>0.001739754495054435</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002748376727772828</v>
+        <v>0.003888076835812418</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00740963759075361</v>
+        <v>0.007364418668943875</v>
       </c>
       <c r="J36" t="n">
-        <v>0.004941922193627682</v>
+        <v>0.005523984206858693</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1852,36 +1852,36 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>model_13_8_13</t>
+          <t>model_13_7_10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9914875290138689</v>
+        <v>0.9906988222865079</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9792299463638714</v>
+        <v>0.9650091498087136</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9599292323939191</v>
+        <v>0.9681689915251003</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9701588405182573</v>
+        <v>0.9713878532364018</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001592492225217669</v>
+        <v>0.001740041548245719</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002882473172030243</v>
+        <v>0.003790675437389375</v>
       </c>
       <c r="I37" t="n">
-        <v>0.007537248776129437</v>
+        <v>0.007372807602047891</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005072955809253393</v>
+        <v>0.005476384691346323</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1891,36 +1891,36 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>model_13_8_14</t>
+          <t>model_13_7_12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.991344814166246</v>
+        <v>0.9906927383829448</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9783387352881099</v>
+        <v>0.9632842026772821</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9593042661590687</v>
+        <v>0.9682360398037808</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9694482094228308</v>
+        <v>0.9709091581109648</v>
       </c>
       <c r="G38" t="n">
-        <v>0.001619190969405239</v>
+        <v>0.001741179710024933</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00300615566517653</v>
+        <v>0.003977544709961114</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00765480394839505</v>
+        <v>0.007357277649261453</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005193762111903441</v>
+        <v>0.005568007269631862</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1930,75 +1930,75 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>model_15_9_1</t>
+          <t>model_13_7_9</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9913323392980706</v>
+        <v>0.9906847494444296</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9888778938149249</v>
+        <v>0.9659849522644199</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9787462001077221</v>
+        <v>0.968125949261638</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9866392070722991</v>
+        <v>0.9716556836745799</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001621524737192769</v>
+        <v>0.001742674261077602</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001723047674988079</v>
+        <v>0.00368496350468785</v>
       </c>
       <c r="I39" t="n">
-        <v>0.002386768518840473</v>
+        <v>0.007382777199068818</v>
       </c>
       <c r="J39" t="n">
-        <v>0.00203538966696239</v>
+        <v>0.005425121760129245</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>model_13_8_0</t>
+          <t>model_13_7_13</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9912142614590722</v>
+        <v>0.990678616153349</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9961758894537618</v>
+        <v>0.9625274110236481</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9722914581226301</v>
+        <v>0.9682621864924679</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9839196384518246</v>
+        <v>0.9706972766547393</v>
       </c>
       <c r="G40" t="n">
-        <v>0.001643614450142378</v>
+        <v>0.001743821662152661</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0005307110058317665</v>
+        <v>0.004059530472438126</v>
       </c>
       <c r="I40" t="n">
-        <v>0.005211933432536596</v>
+        <v>0.007351221463348514</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002733639206634039</v>
+        <v>0.005608561526984191</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2008,36 +2008,36 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>model_13_8_15</t>
+          <t>model_13_7_14</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.9912078508690331</v>
+        <v>0.9906600638621691</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9775196113082195</v>
+        <v>0.9618356787888792</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9587298110440041</v>
+        <v>0.9682844370651403</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9687951422829533</v>
+        <v>0.9705027466970858</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001644813727627502</v>
+        <v>0.00174729237935242</v>
       </c>
       <c r="H41" t="n">
-        <v>0.003119833893358556</v>
+        <v>0.004134468131204759</v>
       </c>
       <c r="I41" t="n">
-        <v>0.007762858057952593</v>
+        <v>0.007346067709219773</v>
       </c>
       <c r="J41" t="n">
-        <v>0.005304782621783464</v>
+        <v>0.005645794695501858</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2047,36 +2047,36 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>model_13_8_16</t>
+          <t>model_13_7_8</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.991077590901396</v>
+        <v>0.9906539522656227</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9767679600602217</v>
+        <v>0.9670410170764506</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9582032887432668</v>
+        <v>0.9680747660482412</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9681961328255013</v>
+        <v>0.9719430952435365</v>
       </c>
       <c r="G42" t="n">
-        <v>0.001669182443369037</v>
+        <v>0.001748435721867139</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0032241482391486</v>
+        <v>0.003570556483384525</v>
       </c>
       <c r="I42" t="n">
-        <v>0.007861896080030188</v>
+        <v>0.007394632430898076</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005406613400471465</v>
+        <v>0.005370110986930204</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2086,36 +2086,36 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>model_13_8_17</t>
+          <t>model_13_7_15</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.9909547405080269</v>
+        <v>0.9906384973722286</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9760800958507813</v>
+        <v>0.9612037706239039</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9577219176745676</v>
+        <v>0.9683033954912902</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9676480938914278</v>
+        <v>0.970324117505456</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001692164994102434</v>
+        <v>0.001751326985474589</v>
       </c>
       <c r="H43" t="n">
-        <v>0.003319610203977756</v>
+        <v>0.004202924849077081</v>
       </c>
       <c r="I43" t="n">
-        <v>0.007952441225910201</v>
+        <v>0.00734167649338537</v>
       </c>
       <c r="J43" t="n">
-        <v>0.005499779260732557</v>
+        <v>0.00567998444639863</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2125,36 +2125,36 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>model_13_8_18</t>
+          <t>model_13_8_20</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.9908395894535709</v>
+        <v>0.9906327635374904</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9754517455623093</v>
+        <v>0.974357241599998</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9572819850734693</v>
+        <v>0.9565161039329296</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9671474911118747</v>
+        <v>0.9662757908335746</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001713707171367485</v>
+        <v>0.001752399657235359</v>
       </c>
       <c r="H44" t="n">
-        <v>0.003406812812160107</v>
+        <v>0.003558708342297564</v>
       </c>
       <c r="I44" t="n">
-        <v>0.008035191860782102</v>
+        <v>0.008179252906628331</v>
       </c>
       <c r="J44" t="n">
-        <v>0.005584881040380776</v>
+        <v>0.005733068881186206</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2164,36 +2164,36 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>model_13_8_19</t>
+          <t>model_13_7_16</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.990732322524996</v>
+        <v>0.990615271845128</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9748789481361835</v>
+        <v>0.9606281809318129</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9568811834779817</v>
+        <v>0.968319640211933</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9666912695232441</v>
+        <v>0.9701608939621468</v>
       </c>
       <c r="G45" t="n">
-        <v>0.001733774405670754</v>
+        <v>0.001755671960205733</v>
       </c>
       <c r="H45" t="n">
-        <v>0.003486305780389317</v>
+        <v>0.004265280399053606</v>
       </c>
       <c r="I45" t="n">
-        <v>0.008110582014640835</v>
+        <v>0.007337913835348848</v>
       </c>
       <c r="J45" t="n">
-        <v>0.005662438078999408</v>
+        <v>0.005711225545545485</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2203,36 +2203,36 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>model_13_7_11</t>
+          <t>model_13_7_7</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9907003566939753</v>
+        <v>0.9906009471116246</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9641100599771162</v>
+        <v>0.9681796139736267</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9682052095054332</v>
+        <v>0.9680142914050821</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9711391628319697</v>
+        <v>0.972249723590032</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001739754495054435</v>
+        <v>0.001758351796268556</v>
       </c>
       <c r="H46" t="n">
-        <v>0.003888076835812418</v>
+        <v>0.003447208486190438</v>
       </c>
       <c r="I46" t="n">
-        <v>0.007364418668943875</v>
+        <v>0.007408639775628165</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005523984206858693</v>
+        <v>0.005311422109211406</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2242,36 +2242,36 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>model_13_7_10</t>
+          <t>model_13_7_17</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9906988222865079</v>
+        <v>0.9905911721268408</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9650091498087136</v>
+        <v>0.9601038592533135</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9681689915251003</v>
+        <v>0.9683335167856146</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9713878532364018</v>
+        <v>0.9700116600906459</v>
       </c>
       <c r="G47" t="n">
-        <v>0.001740041548245719</v>
+        <v>0.001760180476483182</v>
       </c>
       <c r="H47" t="n">
-        <v>0.003790675437389375</v>
+        <v>0.004322081914224376</v>
       </c>
       <c r="I47" t="n">
-        <v>0.007372807602047891</v>
+        <v>0.007334699695651983</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005476384691346323</v>
+        <v>0.005739789011826791</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2281,36 +2281,36 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>model_13_7_12</t>
+          <t>model_13_7_18</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.9906927383829448</v>
+        <v>0.9905669893720643</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9632842026772821</v>
+        <v>0.9596274248306047</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9682360398037808</v>
+        <v>0.9683455521719615</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9709091581109648</v>
+        <v>0.9698757752374844</v>
       </c>
       <c r="G48" t="n">
-        <v>0.001741179710024933</v>
+        <v>0.001764704527023684</v>
       </c>
       <c r="H48" t="n">
-        <v>0.003977544709961114</v>
+        <v>0.004373695643351157</v>
       </c>
       <c r="I48" t="n">
-        <v>0.007357277649261453</v>
+        <v>0.007331912018094676</v>
       </c>
       <c r="J48" t="n">
-        <v>0.005568007269631862</v>
+        <v>0.005765797466759873</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2320,36 +2320,36 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>model_13_7_9</t>
+          <t>model_13_7_19</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9906847494444296</v>
+        <v>0.9905431094594208</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9659849522644199</v>
+        <v>0.9591948535438389</v>
       </c>
       <c r="E49" t="n">
-        <v>0.968125949261638</v>
+        <v>0.9683557121690008</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9716556836745799</v>
+        <v>0.969751886679198</v>
       </c>
       <c r="G49" t="n">
-        <v>0.001742674261077602</v>
+        <v>0.001769171922599611</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00368496350468785</v>
+        <v>0.004420557532750787</v>
       </c>
       <c r="I49" t="n">
-        <v>0.007382777199068818</v>
+        <v>0.007329558724655448</v>
       </c>
       <c r="J49" t="n">
-        <v>0.005425121760129245</v>
+        <v>0.005789509822551899</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2359,36 +2359,36 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>model_13_7_13</t>
+          <t>model_13_8_21</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.990678616153349</v>
+        <v>0.9905407270045665</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9625274110236481</v>
+        <v>0.9738828018321656</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9682621864924679</v>
+        <v>0.9561844034255431</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9706972766547393</v>
+        <v>0.9658979497144377</v>
       </c>
       <c r="G50" t="n">
-        <v>0.001743821662152661</v>
+        <v>0.001769617626419167</v>
       </c>
       <c r="H50" t="n">
-        <v>0.004059530472438126</v>
+        <v>0.003624551210422965</v>
       </c>
       <c r="I50" t="n">
-        <v>0.007351221463348514</v>
+        <v>0.008241645253785687</v>
       </c>
       <c r="J50" t="n">
-        <v>0.005608561526984191</v>
+        <v>0.005797301348476011</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2398,36 +2398,36 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>model_13_7_14</t>
+          <t>model_13_7_20</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9906600638621691</v>
+        <v>0.9905200050030394</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9618356787888792</v>
+        <v>0.9588023458127184</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9682844370651403</v>
+        <v>0.9683647631834224</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9705027466970858</v>
+        <v>0.9696394267179831</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00174729237935242</v>
+        <v>0.001773494247717107</v>
       </c>
       <c r="H51" t="n">
-        <v>0.004134468131204759</v>
+        <v>0.004463079203622176</v>
       </c>
       <c r="I51" t="n">
-        <v>0.007346067709219773</v>
+        <v>0.007327462297582264</v>
       </c>
       <c r="J51" t="n">
-        <v>0.005645794695501858</v>
+        <v>0.005811034736955398</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2437,36 +2437,36 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>model_13_7_8</t>
+          <t>model_13_7_6</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9906539522656227</v>
+        <v>0.9905189611507782</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9670410170764506</v>
+        <v>0.9694023317686139</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9680747660482412</v>
+        <v>0.9679420533157129</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9719430952435365</v>
+        <v>0.9725749603397861</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001748435721867139</v>
+        <v>0.001773689529041758</v>
       </c>
       <c r="H52" t="n">
-        <v>0.003570556483384525</v>
+        <v>0.003314747391733504</v>
       </c>
       <c r="I52" t="n">
-        <v>0.007394632430898076</v>
+        <v>0.007425371810206291</v>
       </c>
       <c r="J52" t="n">
-        <v>0.005370110986930204</v>
+        <v>0.005249171570231146</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2476,36 +2476,36 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>model_13_7_15</t>
+          <t>model_13_7_21</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.9906384973722286</v>
+        <v>0.9904978207801303</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9612037706239039</v>
+        <v>0.95844688207878</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9683033954912902</v>
+        <v>0.9683721940609672</v>
       </c>
       <c r="F53" t="n">
-        <v>0.970324117505456</v>
+        <v>0.9695371631034451</v>
       </c>
       <c r="G53" t="n">
-        <v>0.001751326985474589</v>
+        <v>0.001777644417810235</v>
       </c>
       <c r="H53" t="n">
-        <v>0.004202924849077081</v>
+        <v>0.004501587774798836</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00734167649338537</v>
+        <v>0.007325741132181696</v>
       </c>
       <c r="J53" t="n">
-        <v>0.00567998444639863</v>
+        <v>0.005830608063548641</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2515,36 +2515,36 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>model_13_8_20</t>
+          <t>model_13_7_22</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.9906327635374904</v>
+        <v>0.9904767623012742</v>
       </c>
       <c r="D54" t="n">
-        <v>0.974357241599998</v>
+        <v>0.9581242900614314</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9565161039329296</v>
+        <v>0.9683789535788757</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9662757908335746</v>
+        <v>0.9694443845757149</v>
       </c>
       <c r="G54" t="n">
-        <v>0.001752399657235359</v>
+        <v>0.001781583986462843</v>
       </c>
       <c r="H54" t="n">
-        <v>0.003558708342297564</v>
+        <v>0.004536535243344941</v>
       </c>
       <c r="I54" t="n">
-        <v>0.008179252906628331</v>
+        <v>0.007324175469407868</v>
       </c>
       <c r="J54" t="n">
-        <v>0.005733068881186206</v>
+        <v>0.005848365937962789</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2554,36 +2554,36 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>model_13_7_16</t>
+          <t>model_13_7_23</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.990615271845128</v>
+        <v>0.9904569126798839</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9606281809318129</v>
+        <v>0.9578325818510978</v>
       </c>
       <c r="E55" t="n">
-        <v>0.968319640211933</v>
+        <v>0.9683846923001432</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9701608939621468</v>
+        <v>0.9693602427303659</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001755671960205733</v>
+        <v>0.001785297405021234</v>
       </c>
       <c r="H55" t="n">
-        <v>0.004265280399053606</v>
+        <v>0.004568136966131077</v>
       </c>
       <c r="I55" t="n">
-        <v>0.007337913835348848</v>
+        <v>0.00732284624706103</v>
       </c>
       <c r="J55" t="n">
-        <v>0.005711225545545485</v>
+        <v>0.005864470745392231</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2593,36 +2593,36 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>model_13_7_7</t>
+          <t>model_13_8_22</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.9906009471116246</v>
+        <v>0.9904559574525977</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9681796139736267</v>
+        <v>0.9734519745446858</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9680142914050821</v>
+        <v>0.9558829964833173</v>
       </c>
       <c r="F56" t="n">
-        <v>0.972249723590032</v>
+        <v>0.9655548524160281</v>
       </c>
       <c r="G56" t="n">
-        <v>0.001758351796268556</v>
+        <v>0.001785476106602596</v>
       </c>
       <c r="H56" t="n">
-        <v>0.003447208486190438</v>
+        <v>0.003684341527756526</v>
       </c>
       <c r="I56" t="n">
-        <v>0.007408639775628165</v>
+        <v>0.00829833942867003</v>
       </c>
       <c r="J56" t="n">
-        <v>0.005311422109211406</v>
+        <v>0.005855627414330476</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2632,36 +2632,36 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>model_13_7_17</t>
+          <t>model_13_7_24</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.9905911721268408</v>
+        <v>0.9904383503837961</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9601038592533135</v>
+        <v>0.9575687717815196</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9683335167856146</v>
+        <v>0.9683897904725903</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9700116600906459</v>
+        <v>0.9692840957415607</v>
       </c>
       <c r="G57" t="n">
-        <v>0.001760180476483182</v>
+        <v>0.00178876999391464</v>
       </c>
       <c r="H57" t="n">
-        <v>0.004322081914224376</v>
+        <v>0.004596716390335385</v>
       </c>
       <c r="I57" t="n">
-        <v>0.007334699695651983</v>
+        <v>0.007321665390833863</v>
       </c>
       <c r="J57" t="n">
-        <v>0.005739789011826791</v>
+        <v>0.005879045331746434</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2671,36 +2671,36 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>model_13_7_18</t>
+          <t>model_13_7_5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.9905669893720643</v>
+        <v>0.9903993222588223</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9596274248306047</v>
+        <v>0.9707079545442326</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9683455521719615</v>
+        <v>0.967855975274879</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9698757752374844</v>
+        <v>0.9729171788118099</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001764704527023684</v>
+        <v>0.00179607127995566</v>
       </c>
       <c r="H58" t="n">
-        <v>0.004373695643351157</v>
+        <v>0.003173304924374799</v>
       </c>
       <c r="I58" t="n">
-        <v>0.007331912018094676</v>
+        <v>0.007445309501917511</v>
       </c>
       <c r="J58" t="n">
-        <v>0.005765797466759873</v>
+        <v>0.00518367071785638</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2710,36 +2710,36 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>model_13_7_19</t>
+          <t>model_13_8_23</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.9905431094594208</v>
+        <v>0.9903781028203797</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9591948535438389</v>
+        <v>0.9730611081514228</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9683557121690008</v>
+        <v>0.9556096735920339</v>
       </c>
       <c r="F59" t="n">
-        <v>0.969751886679198</v>
+        <v>0.9652436322779985</v>
       </c>
       <c r="G59" t="n">
-        <v>0.001769171922599611</v>
+        <v>0.001800040960533537</v>
       </c>
       <c r="H59" t="n">
-        <v>0.004420557532750787</v>
+        <v>0.003738586062323785</v>
       </c>
       <c r="I59" t="n">
-        <v>0.007329558724655448</v>
+        <v>0.008349751037453413</v>
       </c>
       <c r="J59" t="n">
-        <v>0.005789509822551899</v>
+        <v>0.005908534407041</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2749,36 +2749,36 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>model_13_8_21</t>
+          <t>model_13_8_24</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.9905407270045665</v>
+        <v>0.9903066670988744</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9738828018321656</v>
+        <v>0.9727064025866782</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9561844034255431</v>
+        <v>0.95536178327731</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9658979497144377</v>
+        <v>0.9649611886910588</v>
       </c>
       <c r="G60" t="n">
-        <v>0.001769617626419167</v>
+        <v>0.00181340498036813</v>
       </c>
       <c r="H60" t="n">
-        <v>0.003624551210422965</v>
+        <v>0.003787812188180662</v>
       </c>
       <c r="I60" t="n">
-        <v>0.008241645253785687</v>
+        <v>0.008396378818324363</v>
       </c>
       <c r="J60" t="n">
-        <v>0.005797301348476011</v>
+        <v>0.005956549425895344</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2788,36 +2788,36 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>model_13_7_20</t>
+          <t>model_13_7_4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.9905200050030394</v>
+        <v>0.9902312481203652</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9588023458127184</v>
+        <v>0.9720942096020919</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9683647631834224</v>
+        <v>0.9677532537533915</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9696394267179831</v>
+        <v>0.9732740809008665</v>
       </c>
       <c r="G61" t="n">
-        <v>0.001773494247717107</v>
+        <v>0.001827514178168083</v>
       </c>
       <c r="H61" t="n">
-        <v>0.004463079203622176</v>
+        <v>0.003023127293106717</v>
       </c>
       <c r="I61" t="n">
-        <v>0.007327462297582264</v>
+        <v>0.007469102213829676</v>
       </c>
       <c r="J61" t="n">
-        <v>0.005811034736955398</v>
+        <v>0.005115359411019889</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2827,75 +2827,75 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>model_13_7_6</t>
+          <t>model_15_9_0</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.9905189611507782</v>
+        <v>0.9900701351760102</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9694023317686139</v>
+        <v>0.9898102263302355</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9679420533157129</v>
+        <v>0.9772497267435309</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9725749603397861</v>
+        <v>0.9866220403918632</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001773689529041758</v>
+        <v>0.001857654793235705</v>
       </c>
       <c r="H62" t="n">
-        <v>0.003314747391733504</v>
+        <v>0.001578609800893916</v>
       </c>
       <c r="I62" t="n">
-        <v>0.007425371810206291</v>
+        <v>0.002554820139399503</v>
       </c>
       <c r="J62" t="n">
-        <v>0.005249171570231146</v>
+        <v>0.002038004847376032</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>model_13_7_21</t>
+          <t>model_13_7_3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.9904978207801303</v>
+        <v>0.990001086031456</v>
       </c>
       <c r="D63" t="n">
-        <v>0.95844688207878</v>
+        <v>0.9735545153016477</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9683721940609672</v>
+        <v>0.9676305978246811</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9695371631034451</v>
+        <v>0.9736417280550499</v>
       </c>
       <c r="G63" t="n">
-        <v>0.001777644417810235</v>
+        <v>0.001870572338098964</v>
       </c>
       <c r="H63" t="n">
-        <v>0.004501587774798836</v>
+        <v>0.002864927508988164</v>
       </c>
       <c r="I63" t="n">
-        <v>0.007325741132181696</v>
+        <v>0.007497512201667353</v>
       </c>
       <c r="J63" t="n">
-        <v>0.005830608063548641</v>
+        <v>0.00504499149128209</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2905,36 +2905,36 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>model_13_7_22</t>
+          <t>model_13_7_2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.9904767623012742</v>
+        <v>0.9896918873592929</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9581242900614314</v>
+        <v>0.9750789264922132</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9683789535788757</v>
+        <v>0.9674834247796842</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9694443845757149</v>
+        <v>0.9740149329828978</v>
       </c>
       <c r="G64" t="n">
-        <v>0.001781583986462843</v>
+        <v>0.001928416468465996</v>
       </c>
       <c r="H64" t="n">
-        <v>0.004536535243344941</v>
+        <v>0.002699782963343582</v>
       </c>
       <c r="I64" t="n">
-        <v>0.007324175469407868</v>
+        <v>0.007531600928256868</v>
       </c>
       <c r="J64" t="n">
-        <v>0.005848365937962789</v>
+        <v>0.0049735598098187</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2944,192 +2944,192 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>model_13_7_23</t>
+          <t>model_7_9_10</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.9904569126798839</v>
+        <v>0.9895584136340595</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9578325818510978</v>
+        <v>0.9621605118755503</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9683846923001432</v>
+        <v>0.9790323390754717</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9693602427303659</v>
+        <v>0.9771851085371269</v>
       </c>
       <c r="G65" t="n">
-        <v>0.001785297405021234</v>
+        <v>0.00195338640610824</v>
       </c>
       <c r="H65" t="n">
-        <v>0.004568136966131077</v>
+        <v>0.00466416070780408</v>
       </c>
       <c r="I65" t="n">
-        <v>0.00732284624706103</v>
+        <v>0.006586466487917459</v>
       </c>
       <c r="J65" t="n">
-        <v>0.005864470745392231</v>
+        <v>0.005568775545764516</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>model_13_8_22</t>
+          <t>model_7_9_11</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.9904559574525977</v>
+        <v>0.9895499611423867</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9734519745446858</v>
+        <v>0.9637836525765452</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9558829964833173</v>
+        <v>0.9771685052393576</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9655548524160281</v>
+        <v>0.9764902766159661</v>
       </c>
       <c r="G66" t="n">
-        <v>0.001785476106602596</v>
+        <v>0.001954967677550396</v>
       </c>
       <c r="H66" t="n">
-        <v>0.003684341527756526</v>
+        <v>0.004464089579571081</v>
       </c>
       <c r="I66" t="n">
-        <v>0.00829833942867003</v>
+        <v>0.007171943291686782</v>
       </c>
       <c r="J66" t="n">
-        <v>0.005855627414330476</v>
+        <v>0.005738373679390236</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>model_13_7_24</t>
+          <t>model_7_9_12</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.9904383503837961</v>
+        <v>0.9894865402288429</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9575687717815196</v>
+        <v>0.9651096055493811</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9683897904725903</v>
+        <v>0.9754177124289217</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9692840957415607</v>
+        <v>0.9757844573509051</v>
       </c>
       <c r="G67" t="n">
-        <v>0.00178876999391464</v>
+        <v>0.001966832306739669</v>
       </c>
       <c r="H67" t="n">
-        <v>0.004596716390335385</v>
+        <v>0.004300650324368761</v>
       </c>
       <c r="I67" t="n">
-        <v>0.007321665390833863</v>
+        <v>0.007721911083264964</v>
       </c>
       <c r="J67" t="n">
-        <v>0.005879045331746434</v>
+        <v>0.005910653660182496</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>model_13_7_5</t>
+          <t>model_7_9_13</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.9903993222588223</v>
+        <v>0.9893841810507947</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9707079545442326</v>
+        <v>0.966193885376822</v>
       </c>
       <c r="E68" t="n">
-        <v>0.967855975274879</v>
+        <v>0.9737823247928999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9729171788118099</v>
+        <v>0.9750838927226994</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00179607127995566</v>
+        <v>0.001985981411093372</v>
       </c>
       <c r="H68" t="n">
-        <v>0.003173304924374799</v>
+        <v>0.004167000118774489</v>
       </c>
       <c r="I68" t="n">
-        <v>0.007445309501917511</v>
+        <v>0.008235627224430296</v>
       </c>
       <c r="J68" t="n">
-        <v>0.00518367071785638</v>
+        <v>0.006081651062301571</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>model_13_8_23</t>
+          <t>model_13_7_1</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.9903781028203797</v>
+        <v>0.9892823603800334</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9730611081514228</v>
+        <v>0.9766528913098178</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9556096735920339</v>
+        <v>0.9673075151749762</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9652436322779985</v>
+        <v>0.9743862882291933</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001800040960533537</v>
+        <v>0.002005029772822665</v>
       </c>
       <c r="H69" t="n">
-        <v>0.003738586062323785</v>
+        <v>0.002529270108103074</v>
       </c>
       <c r="I69" t="n">
-        <v>0.008349751037453413</v>
+        <v>0.007572345715588601</v>
       </c>
       <c r="J69" t="n">
-        <v>0.005908534407041</v>
+        <v>0.004902482158684499</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3139,192 +3139,192 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>model_13_8_24</t>
+          <t>model_7_9_14</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.9903066670988744</v>
+        <v>0.9892553745851982</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9727064025866782</v>
+        <v>0.9670813952070419</v>
       </c>
       <c r="E70" t="n">
-        <v>0.95536178327731</v>
+        <v>0.9722621509997447</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9649611886910588</v>
+        <v>0.9744005526715308</v>
       </c>
       <c r="G70" t="n">
-        <v>0.00181340498036813</v>
+        <v>0.002010078209232759</v>
       </c>
       <c r="H70" t="n">
-        <v>0.003787812188180662</v>
+        <v>0.004057604123133965</v>
       </c>
       <c r="I70" t="n">
-        <v>0.008396378818324363</v>
+        <v>0.008713151817205193</v>
       </c>
       <c r="J70" t="n">
-        <v>0.005956549425895344</v>
+        <v>0.006248444201448485</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>model_13_7_4</t>
+          <t>model_7_9_15</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.9902312481203652</v>
+        <v>0.9891096377332476</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9720942096020919</v>
+        <v>0.9678083529345187</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9677532537533915</v>
+        <v>0.9708544847063857</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9732740809008665</v>
+        <v>0.9737423803673972</v>
       </c>
       <c r="G71" t="n">
-        <v>0.001827514178168083</v>
+        <v>0.002037342302589105</v>
       </c>
       <c r="H71" t="n">
-        <v>0.003023127293106717</v>
+        <v>0.003967998057175032</v>
       </c>
       <c r="I71" t="n">
-        <v>0.007469102213829676</v>
+        <v>0.009155334991606598</v>
       </c>
       <c r="J71" t="n">
-        <v>0.005115359411019889</v>
+        <v>0.006409094268012389</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>model_15_9_0</t>
+          <t>model_7_9_16</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.9900701351760102</v>
+        <v>0.988954354269425</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9898102263302355</v>
+        <v>0.9684046380591493</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9772497267435309</v>
+        <v>0.969555689677039</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9866220403918632</v>
+        <v>0.9731152177483384</v>
       </c>
       <c r="G72" t="n">
-        <v>0.001857654793235705</v>
+        <v>0.002066392352714995</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001578609800893916</v>
+        <v>0.003894498922096796</v>
       </c>
       <c r="I72" t="n">
-        <v>0.002554820139399503</v>
+        <v>0.009563318980200112</v>
       </c>
       <c r="J72" t="n">
-        <v>0.002038004847376032</v>
+        <v>0.006562175331839291</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>model_13_7_3</t>
+          <t>model_7_9_17</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.990001086031456</v>
+        <v>0.9887950229026867</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9735545153016477</v>
+        <v>0.9688943054862772</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9676305978246811</v>
+        <v>0.9683609189268498</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9736417280550499</v>
+        <v>0.9725225111507307</v>
       </c>
       <c r="G73" t="n">
-        <v>0.001870572338098964</v>
+        <v>0.002096199674605135</v>
       </c>
       <c r="H73" t="n">
-        <v>0.002864927508988164</v>
+        <v>0.003834141668690257</v>
       </c>
       <c r="I73" t="n">
-        <v>0.007497512201667353</v>
+        <v>0.009938626342103307</v>
       </c>
       <c r="J73" t="n">
-        <v>0.00504499149128209</v>
+        <v>0.00670684619349746</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>model_13_7_2</t>
+          <t>model_13_7_0</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.9896918873592929</v>
+        <v>0.9887460459956267</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9750789264922132</v>
+        <v>0.9782536166857774</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9674834247796842</v>
+        <v>0.9670962786129057</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9740149329828978</v>
+        <v>0.9747456540802986</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001928416468465996</v>
+        <v>0.002105362154434475</v>
       </c>
       <c r="H74" t="n">
-        <v>0.002699782963343582</v>
+        <v>0.002355858192374125</v>
       </c>
       <c r="I74" t="n">
-        <v>0.007531600928256868</v>
+        <v>0.007621273054221039</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0049735598098187</v>
+        <v>0.004833699286086857</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3334,36 +3334,36 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>model_7_9_10</t>
+          <t>model_7_9_18</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.9895584136340595</v>
+        <v>0.9886357764428301</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9621605118755503</v>
+        <v>0.9692968870075597</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9790323390754717</v>
+        <v>0.9672645341451344</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9771851085371269</v>
+        <v>0.9719661470519563</v>
       </c>
       <c r="G75" t="n">
-        <v>0.00195338640610824</v>
+        <v>0.002125991112323786</v>
       </c>
       <c r="H75" t="n">
-        <v>0.00466416070780408</v>
+        <v>0.003784518774557074</v>
       </c>
       <c r="I75" t="n">
-        <v>0.006586466487917459</v>
+        <v>0.01028302821165965</v>
       </c>
       <c r="J75" t="n">
-        <v>0.005568775545764516</v>
+        <v>0.006842646391926536</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3373,36 +3373,36 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>model_7_9_11</t>
+          <t>model_7_9_19</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.9895499611423867</v>
+        <v>0.9884796805506508</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9637836525765452</v>
+        <v>0.9696286581843422</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9771685052393576</v>
+        <v>0.9662609318736977</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9764902766159661</v>
+        <v>0.9714470643209348</v>
       </c>
       <c r="G76" t="n">
-        <v>0.001954967677550396</v>
+        <v>0.00215519314955701</v>
       </c>
       <c r="H76" t="n">
-        <v>0.004464089579571081</v>
+        <v>0.003743624085875199</v>
       </c>
       <c r="I76" t="n">
-        <v>0.007171943291686782</v>
+        <v>0.0105982847751747</v>
       </c>
       <c r="J76" t="n">
-        <v>0.005738373679390236</v>
+        <v>0.006969346763192614</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3412,36 +3412,36 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>model_7_9_9</t>
+          <t>model_7_9_20</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.9894914870371139</v>
+        <v>0.9883288087094979</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9601728990545368</v>
+        <v>0.9699025141737186</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810033496467444</v>
+        <v>0.9653438600764818</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9778473920879972</v>
+        <v>0.970964878138874</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001965906869962941</v>
+        <v>0.002183417884117851</v>
       </c>
       <c r="H77" t="n">
-        <v>0.004909157299502388</v>
+        <v>0.003709868123293313</v>
       </c>
       <c r="I77" t="n">
-        <v>0.005967322792216422</v>
+        <v>0.01088635995347516</v>
       </c>
       <c r="J77" t="n">
-        <v>0.005407121985042996</v>
+        <v>0.007087041235837163</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3451,75 +3451,75 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>model_7_9_12</t>
+          <t>model_15_8_4</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.9894865402288429</v>
+        <v>0.9882815976120891</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9651096055493811</v>
+        <v>0.9702761971612841</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9754177124289217</v>
+        <v>0.9691296117689563</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9757844573509051</v>
+        <v>0.9698091585761888</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001966832306739669</v>
+        <v>0.002192250020602075</v>
       </c>
       <c r="H78" t="n">
-        <v>0.004300650324368761</v>
+        <v>0.004113407352349408</v>
       </c>
       <c r="I78" t="n">
-        <v>0.007721911083264964</v>
+        <v>0.004063652495782406</v>
       </c>
       <c r="J78" t="n">
-        <v>0.005910653660182496</v>
+        <v>0.004089991940318049</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>model_7_9_13</t>
+          <t>model_7_9_21</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.9893841810507947</v>
+        <v>0.9881845799055149</v>
       </c>
       <c r="D79" t="n">
-        <v>0.966193885376822</v>
+        <v>0.9701287911307107</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9737823247928999</v>
+        <v>0.9645072729943448</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9750838927226994</v>
+        <v>0.9705187320158238</v>
       </c>
       <c r="G79" t="n">
-        <v>0.001985981411093372</v>
+        <v>0.002210399855553602</v>
       </c>
       <c r="H79" t="n">
-        <v>0.004167000118774489</v>
+        <v>0.003681976834478491</v>
       </c>
       <c r="I79" t="n">
-        <v>0.008235627224430296</v>
+        <v>0.01114915287065145</v>
       </c>
       <c r="J79" t="n">
-        <v>0.006081651062301571</v>
+        <v>0.007195938866313405</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3529,114 +3529,114 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>model_7_9_8</t>
+          <t>model_15_8_3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.9893231079000493</v>
+        <v>0.9881692523841558</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9577376667937534</v>
+        <v>0.9787879063947821</v>
       </c>
       <c r="E80" t="n">
-        <v>0.983070359576891</v>
+        <v>0.9698066247857663</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9784481776880734</v>
+        <v>0.974721931924356</v>
       </c>
       <c r="G80" t="n">
-        <v>0.001997406826567915</v>
+        <v>0.002213267290712675</v>
       </c>
       <c r="H80" t="n">
-        <v>0.005209328237009961</v>
+        <v>0.00293549187726332</v>
       </c>
       <c r="I80" t="n">
-        <v>0.005318023297909081</v>
+        <v>0.003974533252614917</v>
       </c>
       <c r="J80" t="n">
-        <v>0.005260479159088892</v>
+        <v>0.003424452245132023</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>model_13_7_1</t>
+          <t>model_15_8_5</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.9892823603800334</v>
+        <v>0.9881324370751469</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9766528913098178</v>
+        <v>0.9614848702896833</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9673075151749762</v>
+        <v>0.9684362277683094</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9743862882291933</v>
+        <v>0.9647376755385971</v>
       </c>
       <c r="G81" t="n">
-        <v>0.002005029772822665</v>
+        <v>0.002220154608562111</v>
       </c>
       <c r="H81" t="n">
-        <v>0.002529270108103074</v>
+        <v>0.005330018456479306</v>
       </c>
       <c r="I81" t="n">
-        <v>0.007572345715588601</v>
+        <v>0.004154926748755059</v>
       </c>
       <c r="J81" t="n">
-        <v>0.004902482158684499</v>
+        <v>0.004777032240322753</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>model_7_9_14</t>
+          <t>model_7_9_22</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.9892553745851982</v>
+        <v>0.9880479299806473</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9670813952070419</v>
+        <v>0.9703162622933137</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9722621509997447</v>
+        <v>0.9637451158053723</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9744005526715308</v>
+        <v>0.9701072761752629</v>
       </c>
       <c r="G82" t="n">
-        <v>0.002010078209232759</v>
+        <v>0.002235963988844954</v>
       </c>
       <c r="H82" t="n">
-        <v>0.004057604123133965</v>
+        <v>0.003658868814951825</v>
       </c>
       <c r="I82" t="n">
-        <v>0.008713151817205193</v>
+        <v>0.01138856549763744</v>
       </c>
       <c r="J82" t="n">
-        <v>0.006248444201448485</v>
+        <v>0.007296369114987005</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3646,36 +3646,36 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>model_7_9_15</t>
+          <t>model_7_9_23</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.9891096377332476</v>
+        <v>0.9879194617996347</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9678083529345187</v>
+        <v>0.9704718022587625</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9708544847063857</v>
+        <v>0.9630519688755464</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9737423803673972</v>
+        <v>0.9697291004090359</v>
       </c>
       <c r="G83" t="n">
-        <v>0.002037342302589105</v>
+        <v>0.002259997501532816</v>
       </c>
       <c r="H83" t="n">
-        <v>0.003967998057175032</v>
+        <v>0.003639696689976085</v>
       </c>
       <c r="I83" t="n">
-        <v>0.009155334991606598</v>
+        <v>0.01160630027696897</v>
       </c>
       <c r="J83" t="n">
-        <v>0.006409094268012389</v>
+        <v>0.007388676192686368</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3685,36 +3685,36 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>model_7_9_16</t>
+          <t>model_7_9_24</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.988954354269425</v>
+        <v>0.9877993543293734</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9684046380591493</v>
+        <v>0.9706012405996012</v>
       </c>
       <c r="E84" t="n">
-        <v>0.969555689677039</v>
+        <v>0.962422181580382</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9731152177483384</v>
+        <v>0.9693822495010228</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002066392352714995</v>
+        <v>0.002282466912928584</v>
       </c>
       <c r="H84" t="n">
-        <v>0.003894498922096796</v>
+        <v>0.003623741896363726</v>
       </c>
       <c r="I84" t="n">
-        <v>0.009563318980200112</v>
+        <v>0.01180413221106249</v>
       </c>
       <c r="J84" t="n">
-        <v>0.006562175331839291</v>
+        <v>0.007473337338574909</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3724,2419 +3724,508 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>model_7_9_17</t>
+          <t>model_15_8_2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.9887950229026867</v>
+        <v>0.9876945502225516</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9688943054862772</v>
+        <v>0.986637383508708</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9683609189268498</v>
+        <v>0.9704449306327831</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9725225111507307</v>
+        <v>0.9792588964897028</v>
       </c>
       <c r="G85" t="n">
-        <v>0.002096199674605135</v>
+        <v>0.002302073408569685</v>
       </c>
       <c r="H85" t="n">
-        <v>0.003834141668690257</v>
+        <v>0.001849221151820851</v>
       </c>
       <c r="I85" t="n">
-        <v>0.009938626342103307</v>
+        <v>0.003890509264031122</v>
       </c>
       <c r="J85" t="n">
-        <v>0.00670684619349746</v>
+        <v>0.002809823846893935</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>model_13_7_0</t>
+          <t>model_6_9_10</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.9887460459956267</v>
+        <v>0.9855036484152749</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9782536166857774</v>
+        <v>0.9610145819922452</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9670962786129057</v>
+        <v>0.9716198369697037</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9747456540802986</v>
+        <v>0.9673757283626221</v>
       </c>
       <c r="G86" t="n">
-        <v>0.002105362154434475</v>
+        <v>0.002711941953201187</v>
       </c>
       <c r="H86" t="n">
-        <v>0.002355858192374125</v>
+        <v>0.008118496714459324</v>
       </c>
       <c r="I86" t="n">
-        <v>0.007621273054221039</v>
+        <v>0.004501625984661826</v>
       </c>
       <c r="J86" t="n">
-        <v>0.004833699286086857</v>
+        <v>0.006416437889826666</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Hidden Size=[35], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>model_7_9_18</t>
+          <t>model_6_9_9</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9886357764428301</v>
+        <v>0.9854515912702329</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9692968870075597</v>
+        <v>0.964862508002241</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9672645341451344</v>
+        <v>0.9734013075502551</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9719661470519563</v>
+        <v>0.9702088503402033</v>
       </c>
       <c r="G87" t="n">
-        <v>0.002125991112323786</v>
+        <v>0.002721680676408769</v>
       </c>
       <c r="H87" t="n">
-        <v>0.003784518774557074</v>
+        <v>0.007317187500244424</v>
       </c>
       <c r="I87" t="n">
-        <v>0.01028302821165965</v>
+        <v>0.004219051348012969</v>
       </c>
       <c r="J87" t="n">
-        <v>0.006842646391926536</v>
+        <v>0.005859228478211002</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>model_7_9_19</t>
+          <t>model_6_9_11</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.9884796805506508</v>
+        <v>0.9854103308587662</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9696286581843422</v>
+        <v>0.9573319473696877</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9662609318736977</v>
+        <v>0.9698910634326765</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9714470643209348</v>
+        <v>0.9646553039070258</v>
       </c>
       <c r="G88" t="n">
-        <v>0.00215519314955701</v>
+        <v>0.002729399573140047</v>
       </c>
       <c r="H88" t="n">
-        <v>0.003743624085875199</v>
+        <v>0.008885384915525672</v>
       </c>
       <c r="I88" t="n">
-        <v>0.0105982847751747</v>
+        <v>0.004775841882138148</v>
       </c>
       <c r="J88" t="n">
-        <v>0.006969346763192614</v>
+        <v>0.006951482311578602</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>model_7_9_20</t>
+          <t>model_6_9_12</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.9883288087094979</v>
+        <v>0.9852122724531036</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9699025141737186</v>
+        <v>0.9538343065918458</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9653438600764818</v>
+        <v>0.9682369081570423</v>
       </c>
       <c r="F89" t="n">
-        <v>0.970964878138874</v>
+        <v>0.9620669074790353</v>
       </c>
       <c r="G89" t="n">
-        <v>0.002183417884117851</v>
+        <v>0.002766451854630411</v>
       </c>
       <c r="H89" t="n">
-        <v>0.003709868123293313</v>
+        <v>0.00961374917617362</v>
       </c>
       <c r="I89" t="n">
-        <v>0.01088635995347516</v>
+        <v>0.005038221924265151</v>
       </c>
       <c r="J89" t="n">
-        <v>0.007087041235837163</v>
+        <v>0.007460559881157871</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>model_15_8_4</t>
+          <t>model_6_9_8</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.9882815976120891</v>
+        <v>0.9852028431510702</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9702761971612841</v>
+        <v>0.9688479026043805</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9691296117689563</v>
+        <v>0.9752015473354965</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9698091585761888</v>
+        <v>0.9731260407233584</v>
       </c>
       <c r="G90" t="n">
-        <v>0.002192250020602075</v>
+        <v>0.002768215865362642</v>
       </c>
       <c r="H90" t="n">
-        <v>0.004113407352349408</v>
+        <v>0.006487251215430007</v>
       </c>
       <c r="I90" t="n">
-        <v>0.004063652495782406</v>
+        <v>0.003933499563577716</v>
       </c>
       <c r="J90" t="n">
-        <v>0.004089991940318049</v>
+        <v>0.005285484760209687</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>model_7_9_21</t>
+          <t>model_6_9_7</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.9881845799055149</v>
+        <v>0.9846917273129081</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9701287911307107</v>
+        <v>0.9729305307889455</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9645072729943448</v>
+        <v>0.9769692463025785</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9705187320158238</v>
+        <v>0.9760854297992843</v>
       </c>
       <c r="G91" t="n">
-        <v>0.002210399855553602</v>
+        <v>0.002863834164653762</v>
       </c>
       <c r="H91" t="n">
-        <v>0.003681976834478491</v>
+        <v>0.00563706657726203</v>
       </c>
       <c r="I91" t="n">
-        <v>0.01114915287065145</v>
+        <v>0.00365310936304288</v>
       </c>
       <c r="J91" t="n">
-        <v>0.007195938866313405</v>
+        <v>0.004703441537649147</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>model_15_8_3</t>
+          <t>model_6_9_6</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.9881692523841558</v>
+        <v>0.9838357785792187</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9787879063947821</v>
+        <v>0.977058107316781</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9698066247857663</v>
+        <v>0.9786310261163442</v>
       </c>
       <c r="F92" t="n">
-        <v>0.974721931924356</v>
+        <v>0.9790298395924423</v>
       </c>
       <c r="G92" t="n">
-        <v>0.002213267290712675</v>
+        <v>0.003023962957551392</v>
       </c>
       <c r="H92" t="n">
-        <v>0.00293549187726332</v>
+        <v>0.004777521696321</v>
       </c>
       <c r="I92" t="n">
-        <v>0.003974533252614917</v>
+        <v>0.00338951992620812</v>
       </c>
       <c r="J92" t="n">
-        <v>0.003424452245132023</v>
+        <v>0.004124344392738468</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>model_15_8_5</t>
+          <t>model_6_9_5</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.9881324370751469</v>
+        <v>0.9825307751514227</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9614848702896833</v>
+        <v>0.9811616508779796</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9684362277683094</v>
+        <v>0.9800840601188342</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9647376755385971</v>
+        <v>0.9818815894075875</v>
       </c>
       <c r="G93" t="n">
-        <v>0.002220154608562111</v>
+        <v>0.003268099802896699</v>
       </c>
       <c r="H93" t="n">
-        <v>0.005330018456479306</v>
+        <v>0.003922981547165621</v>
       </c>
       <c r="I93" t="n">
-        <v>0.004154926748755059</v>
+        <v>0.003159041489025669</v>
       </c>
       <c r="J93" t="n">
-        <v>0.004777032240322753</v>
+        <v>0.003563471317330411</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>model_7_9_22</t>
+          <t>model_6_9_4</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.9880479299806473</v>
+        <v>0.9806458563386929</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9703162622933137</v>
+        <v>0.9851524669649145</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9637451158053723</v>
+        <v>0.9811870183230869</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9701072761752629</v>
+        <v>0.9845372261609879</v>
       </c>
       <c r="G94" t="n">
-        <v>0.002235963988844954</v>
+        <v>0.003620725798254479</v>
       </c>
       <c r="H94" t="n">
-        <v>0.003658868814951825</v>
+        <v>0.003091916268261891</v>
       </c>
       <c r="I94" t="n">
-        <v>0.01138856549763744</v>
+        <v>0.002984091637364862</v>
       </c>
       <c r="J94" t="n">
-        <v>0.007296369114987005</v>
+        <v>0.003041169134601759</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>model_7_9_23</t>
+          <t>model_14_9_3</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.9879194617996347</v>
+        <v>0.979767998549073</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9704718022587625</v>
+        <v>0.9568384858564714</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9630519688755464</v>
+        <v>0.9733724329991915</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9697291004090359</v>
+        <v>0.9780509740180591</v>
       </c>
       <c r="G95" t="n">
-        <v>0.002259997501532816</v>
+        <v>0.003784953283680764</v>
       </c>
       <c r="H95" t="n">
-        <v>0.003639696689976085</v>
+        <v>0.002690827334839393</v>
       </c>
       <c r="I95" t="n">
-        <v>0.01160630027696897</v>
+        <v>0.007080228459941528</v>
       </c>
       <c r="J95" t="n">
-        <v>0.007388676192686368</v>
+        <v>0.004756422283654711</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[35], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>model_15_8_6</t>
+          <t>model_14_9_2</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.987799387893294</v>
+        <v>0.9791250898068442</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9526885527438257</v>
+        <v>0.9700269259045116</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9677448903306367</v>
+        <v>0.9813955131183494</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9596644115751546</v>
+        <v>0.984692315330289</v>
       </c>
       <c r="G96" t="n">
-        <v>0.002282460633872507</v>
+        <v>0.003905227076706546</v>
       </c>
       <c r="H96" t="n">
-        <v>0.006547320208313083</v>
+        <v>0.001868617648980211</v>
       </c>
       <c r="I96" t="n">
-        <v>0.004245931600491957</v>
+        <v>0.004946903992320146</v>
       </c>
       <c r="J96" t="n">
-        <v>0.005464313804632553</v>
+        <v>0.003317222938916684</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
+          <t>Hidden Size=[35], regularizer=0.1, learning_rate=0.1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>model_7_9_24</t>
+          <t>model_6_9_3</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.9877993543293734</v>
+        <v>0.9780168378767103</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9706012405996012</v>
+        <v>0.9889164992672986</v>
       </c>
       <c r="E97" t="n">
-        <v>0.962422181580382</v>
+        <v>0.9817474575133607</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9693822495010228</v>
+        <v>0.9868598187480614</v>
       </c>
       <c r="G97" t="n">
-        <v>0.002282466912928584</v>
+        <v>0.004112556133709617</v>
       </c>
       <c r="H97" t="n">
-        <v>0.003623741896363726</v>
+        <v>0.002308077452580978</v>
       </c>
       <c r="I97" t="n">
-        <v>0.01180413221106249</v>
+        <v>0.002895195473552616</v>
       </c>
       <c r="J97" t="n">
-        <v>0.007473337338574909</v>
+        <v>0.002584369018296504</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>model_15_8_2</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>0.9876945502225516</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.986637383508708</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.9704449306327831</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.9792588964897028</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.002302073408569685</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.001849221151820851</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.003890509264031122</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.002809823846893935</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>model_15_8_7</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>0.9873413265604668</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.9440795316535128</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.9670675644783777</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.9546989112474875</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.002368153626234952</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.007738702443001396</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.004335092024047043</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.006136996491236562</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>model_15_8_1</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>0.9867262702938452</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.9932995643278562</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.9710135720217019</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.9831218794405946</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.00248321684633429</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.0009272575755966584</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.003815655621699504</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.00228650060084911</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>model_16_9_1</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>0.9860919460793817</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.9692434373125058</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.998775660413071</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.9859252212241819</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.002601884666929064</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.004746838783566685</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.0002666611620331414</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.00263851939340226</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>model_6_9_10</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>0.9855036484152749</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.9610145819922452</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.9716198369697037</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.9673757283626221</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.002711941953201187</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.008118496714459324</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.004501625984661826</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.006416437889826666</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
           <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>model_6_9_9</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>0.9854515912702329</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.964862508002241</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.9734013075502551</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.9702088503402033</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.002721680676408769</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.007317187500244424</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.004219051348012969</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.005859228478211002</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>model_6_9_11</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>0.9854103308587662</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.9573319473696877</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.9698910634326765</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.9646553039070258</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.002729399573140047</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.008885384915525672</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.004775841882138148</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.006951482311578602</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>model_6_9_12</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>0.9852122724531036</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.9538343065918458</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.9682369081570423</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.9620669074790353</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.002766451854630411</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.00961374917617362</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.005038221924265151</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.007460559881157871</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>model_6_9_8</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>0.9852028431510702</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.9688479026043805</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.9752015473354965</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.9731260407233584</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.002768215865362642</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.006487251215430007</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.003933499563577716</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.005285484760209687</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>model_15_8_0</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>0.9850952013051246</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.9980650748600173</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.9714735782916889</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.9859094311280795</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.002788353238289456</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.0002677697514089222</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.00375510226509388</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.001908867404907726</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>model_6_9_13</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>0.9849410422123825</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.9505335103233125</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.9666712646109864</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.9596224497004956</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.00281719294382717</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.01030112166133864</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.005286562346486112</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.007941328055376159</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>model_6_9_7</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>0.9846917273129081</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.9729305307889455</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.9769692463025785</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.9760854297992843</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.002863834164653762</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.00563706657726203</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.00365310936304288</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.004703441537649147</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>model_6_9_14</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>0.9846213076029455</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.9474365026771479</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.9652010465629931</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.9573285034549825</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.002877008111537123</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.01094605629805438</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.005519766495486241</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.008392494100415825</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>model_6_9_15</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9842718074907708</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.9445438590339459</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.9638294362088365</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.9551864517049027</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.00294239173660413</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.01154843326650871</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.005737329615349611</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.00881378601963327</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>model_16_9_0</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9842187206583587</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.9717523101036922</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.9991816956458714</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.9872407659965294</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.002952323091203215</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.004359629888045964</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.0001782266883291872</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.002391901634784864</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>model_6_9_16</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>0.983907101065897</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.9418538865861334</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.9625563602406707</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.9531953709850389</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.003010620121410941</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.01210860508447427</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.005939263334075124</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.009205385437227613</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>model_6_9_6</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9838357785792187</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.977058107316781</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.9786310261163442</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.9790298395924423</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.003023962957551392</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.004777521696321</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.00338951992620812</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.004124344392738468</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>model_6_9_17</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>0.9835379206071738</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.9393611681932492</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.9613791434490627</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.9513513789981832</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.003079685497513447</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.0126276998413569</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.006125991990038983</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.009568055911054885</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>model_16_8_6</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9826169956167508</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.9572567977764748</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.9871207748327047</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.9762766917742515</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.003251969889395295</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.006793425145496532</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.002270748263519428</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.004665102370643146</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>model_6_9_5</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9825307751514227</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.9811616508779796</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.9800840601188342</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.9818815894075875</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.003268099802896699</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.003922981547165621</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.003159041489025669</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.003563471317330411</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>model_7_8_3</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9813724232298096</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.9532490705097342</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.9513508784088581</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.9527489946784697</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.003484801443611866</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.008099454241196298</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.005627411125802855</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.006936153284281685</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>model_16_8_5</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>0.981138642199928</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.9615768759223988</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.988906101405748</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.9788784492644479</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.003528536626157142</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.006106810058644718</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.001955975661682505</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.004153476212948156</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>model_7_8_2</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9807061956847248</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.9586890120951936</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.9542149932063517</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.9572101382552859</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.003609437661168659</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.007157001151458614</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.005296109121782156</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.006281285192874418</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>model_6_9_4</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9806458563386929</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.9851524669649145</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.9811870183230869</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.9845372261609879</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.003620725798254479</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.003091916268261891</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.002984091637364862</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.003041169134601759</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>model_14_9_3</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>0.979767998549073</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.9568384858564714</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.9733724329991915</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.9780509740180591</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.003784953283680764</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.002690827334839393</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.007080228459941528</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.004756422283654711</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Hidden Size=[35], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>model_7_8_1</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9795618797915155</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.9638517166893065</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.9567211282094547</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.9613651273723989</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.003823513476063987</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.006262578514802011</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.005006215871134164</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.005671358669307174</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>model_14_9_4</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9794108537302193</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.9412179648329951</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.963913110983724</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.9702098458421826</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.00385176706175154</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.003664660755386926</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.009595447403663707</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.006455619178105412</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Hidden Size=[35], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>model_14_9_2</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9791250898068442</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.9700269259045116</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.9813955131183494</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.984692315330289</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.003905227076706546</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.001868617648980211</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.004946903992320146</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.003317222938916684</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Hidden Size=[35], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>model_16_8_4</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9790581774252731</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.9655713027424108</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.9905912306744979</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.9812986041281782</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.003917744881183798</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.005471952626601883</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.001658868940500513</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.003677561551945788</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>model_14_9_5</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9782787584460468</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.923772461614162</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.9534017393956411</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.9614833221474012</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.004063556675036276</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.004752269423960544</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.01239040468491683</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.008346684038789883</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Hidden Size=[35], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>model_6_9_3</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>0.9780168378767103</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.9889164992672986</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.9817474575133607</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.9868598187480614</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.004112556133709617</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.002308077452580978</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.002895195473552616</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.002584369018296504</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>model_7_8_0</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>0.9777963333517095</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.9685244369070193</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.9586791797258447</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.9650108903350156</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.004153807580235718</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.005453044159059235</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.004779721321431243</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.005136183373569208</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Hidden Size=[20], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>model_14_9_1</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>0.9772242272591887</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.9802087564507093</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.9875767573393237</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.989812244089613</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.004260835786948346</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.001233849650311211</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.003303320812157166</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.002207718432356366</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Hidden Size=[35], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>model_16_8_3</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>0.976204873410384</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.9690171418434287</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.9920902835131864</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.9834055014636238</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.004451534008605959</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.004924285423902072</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.001394569529149307</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.003263247845747703</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>model_17_6_1</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>0.9748669145059201</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.9608327432569802</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.9737552100135574</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.9681439348766407</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.004701836083819006</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.009482344502847136</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.004289997975674524</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.007038889694793687</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Hidden Size=[45], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>model_6_9_2</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>0.9744380533232424</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.9923081454073813</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.9815103997737</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.9886710408284108</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.004782066383602069</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.001601785986387319</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.002932797275895428</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.002228143625361445</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Hidden Size=[15], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>model_17_6_2</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>0.9743779045173265</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.9571594580004325</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.955261797533656</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.959575048602644</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.004793318874909623</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.01037164232853727</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.007312948517213399</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.008932263689865893</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Hidden Size=[45], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>model_14_9_0</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>0.9737581538081792</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.9868749636240191</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.991434059960428</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.9930548301375176</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.004909260319820067</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.0008182568974250454</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.002277670072240889</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.001505039937756589</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Hidden Size=[35], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>model_17_6_0</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>0.9734281833141925</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.9647180250440187</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.981204392830663</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.9729909562945435</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.004970990391744102</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.008541722578849288</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.003072347568781552</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.005967895867502002</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Hidden Size=[45], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>model_11_9_3</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>0.973371633713192</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.9660994764626836</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.9452696792629532</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.9591023169466107</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.004981569552610437</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.007390397836131375</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.007131959404920252</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.007268777757407945</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Hidden Size=[30], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>model_8_7_5</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>0.9730264406217978</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.9557810646065382</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.9608676921779064</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.9589827613434085</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.005046147430777639</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.01460676995986048</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.009640244031972764</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.01226957601408792</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Hidden Size=[20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>model_8_7_6</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>0.9729234276115297</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.954482915293411</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.9551384145000338</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.9560033873418681</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.005065418852461825</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.01503558553901631</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.01105165158791669</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.01316080265399785</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Hidden Size=[20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>model_8_7_4</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>0.9728325046361742</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.9571525262144217</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.9665875906963741</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.9620012932994751</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.005082428500022813</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.01415373724803956</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.008231147031948235</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.01136663596987894</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Hidden Size=[20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>model_8_7_7</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>0.9726067228429165</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.9532625523770801</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.9495148247802984</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.9531105091195174</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.005124667204970464</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.01543870606256072</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.01243702291537351</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.01402615562292393</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>Hidden Size=[20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>model_16_8_2</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>0.9723647824371877</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.9716273367289768</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.9932874640829322</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.9850275082073465</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.005169928823567089</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.004509432005166653</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.001183493500540646</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.00294428611269872</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Hidden Size=[40], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>model_8_7_3</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>0.9722348864731669</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.9585890748417334</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.9721409084601287</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.9649932797838225</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.005194229442403543</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.01367920444555158</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.0068630872008473</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.01047163653049264</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Hidden Size=[20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>model_8_7_8</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>0.9721407832300641</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.9521216683240719</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.9440777758005318</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.9503364011175398</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.005211834046666292</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.01581557246074246</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.01377643993153901</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.01485598059691898</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>Hidden Size=[20], regularizer=0.1, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>model_17_8_1</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>0.9719013973861104</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.9920299238844317</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.9637364351515961</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.9794289629508041</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.005256617764102118</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.001615937852231554</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.006707342951452832</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.004011893193041566</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Hidden Size=[45], regularizer=0.01, learning_rate=0.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>model_9_9_2</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>0.9716337243625198</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.9610719738591711</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.9421576530889797</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.9531485315074215</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.005306693377829652</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.007045780494323913</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.008521262243997864</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.007740121980266655</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>Hidden Size=[25], regularizer=0.01, learning_rate=0.1</t>
         </is>
       </c>
     </row>
